--- a/doc/test_results_sample.xlsx
+++ b/doc/test_results_sample.xlsx
@@ -753,7 +753,7 @@
   <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
